--- a/tests/core/exports/books-empty-author-email.xlsx
+++ b/tests/core/exports/books-empty-author-email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Projects/django-import-export/tests/core/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F1403E-9309-DC48-B2E0-AB1A19643EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998103A-EE03-0F4F-A1E7-ABF3C73F9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="21780" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -48,13 +48,19 @@
   </si>
   <si>
     <t>Some book</t>
+  </si>
+  <si>
+    <t>book2</t>
+  </si>
+  <si>
+    <t>author@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -65,6 +71,13 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,14 +97,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -430,9 +446,22 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9B387E7B-2706-CF47-8862-F9B11F75A52B}"/>
+  </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
